--- a/ST/Data/web/mov_info.xlsx
+++ b/ST/Data/web/mov_info.xlsx
@@ -3,30 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E03931F7-BC3B-47BE-9C08-607D06521210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneca\git\ST\ST\Data\web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AA0955-B063-45BB-ABE1-AD742E9971AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mov_info" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="210">
   <si>
     <t>Hoja_afilada</t>
   </si>
@@ -55,9 +49,6 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Mazazo</t>
   </si>
   <si>
@@ -653,6 +644,12 @@
   </si>
   <si>
     <t>Un nivel??</t>
+  </si>
+  <si>
+    <t>Dormido</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -700,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -708,6 +705,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1024,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q163"/>
+  <dimension ref="B1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1049,41 +1049,41 @@
     <col min="16" max="256" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1">
         <v>55</v>
@@ -1101,7 +1101,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1">
         <v>55</v>
@@ -1129,7 +1129,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1137,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1151,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="1">
         <v>40</v>
@@ -1174,7 +1174,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1185,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I5">
         <v>20</v>
@@ -1208,9 +1208,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="1">
         <v>120</v>
@@ -1242,21 +1242,21 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="1">
         <v>110</v>
@@ -1268,19 +1268,19 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="4"/>
       <c r="M7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1">
         <v>150</v>
@@ -1310,9 +1310,9 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1321,44 +1321,44 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="1">
         <v>75</v>
@@ -1371,30 +1371,30 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -1412,9 +1412,9 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1423,10 +1423,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="1">
         <v>40</v>
@@ -1444,9 +1444,9 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="1">
         <v>80</v>
@@ -1471,18 +1471,18 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="1">
         <v>90</v>
@@ -1512,9 +1512,9 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1523,16 +1523,16 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1544,9 +1544,9 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="1">
         <v>80</v>
@@ -1572,17 +1572,17 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1591,16 +1591,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" s="1">
         <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I17">
         <v>20</v>
@@ -1612,9 +1612,9 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" s="1">
         <v>150</v>
@@ -1644,9 +1644,9 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="1">
         <v>80</v>
@@ -1672,17 +1672,17 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I20">
         <v>20</v>
@@ -1715,9 +1715,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1726,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G21" s="1">
         <v>70</v>
@@ -1747,9 +1747,9 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1758,16 +1758,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I22">
         <v>15</v>
@@ -1782,9 +1782,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1793,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G23" s="1">
         <v>120</v>
@@ -1814,9 +1814,9 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H24" s="1">
         <v>100</v>
@@ -1849,9 +1849,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" s="1">
         <v>75</v>
@@ -1875,37 +1875,37 @@
         <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="4"/>
       <c r="M25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -1920,21 +1920,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G27" s="1">
         <v>120</v>
@@ -1955,9 +1955,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1966,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G28" s="1">
         <v>70</v>
@@ -1981,19 +1981,19 @@
         <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="4"/>
       <c r="M28" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H29" s="1">
         <v>90</v>
@@ -2016,7 +2016,9 @@
       <c r="I29">
         <v>20</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="4"/>
       <c r="M29" s="1"/>
@@ -2026,9 +2028,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -2037,16 +2039,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -2061,9 +2063,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2072,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H31" s="1">
         <v>90</v>
@@ -2086,7 +2088,9 @@
       <c r="I31">
         <v>10</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="4"/>
       <c r="M31" s="1"/>
@@ -2096,9 +2100,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2107,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G32" s="1">
         <v>110</v>
@@ -2122,19 +2126,19 @@
         <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="4"/>
       <c r="M32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2143,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G33" s="1">
         <v>90</v>
@@ -2164,13 +2168,13 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
@@ -2178,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G34" s="1">
         <v>60</v>
@@ -2199,13 +2203,13 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -2213,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G35" s="1">
         <v>100</v>
@@ -2237,9 +2241,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2248,16 +2252,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I36">
         <v>20</v>
@@ -2272,9 +2276,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2283,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H37" s="1">
         <v>100</v>
@@ -2307,9 +2311,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2318,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" s="1">
         <v>50</v>
@@ -2342,9 +2346,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2353,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G39" s="1">
         <v>100</v>
@@ -2374,9 +2378,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2385,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G40" s="1">
         <v>80</v>
@@ -2409,9 +2413,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2420,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G41" s="1">
         <v>70</v>
@@ -2444,9 +2448,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2455,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G42" s="1">
         <v>75</v>
@@ -2470,19 +2474,19 @@
         <v>15</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="4"/>
       <c r="M42" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2491,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G43" s="1">
         <v>120</v>
@@ -2506,19 +2510,19 @@
         <v>15</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="4"/>
       <c r="M43" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2527,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" s="1">
         <v>130</v>
@@ -2551,9 +2555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2562,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G45" s="1">
         <v>120</v>
@@ -2586,9 +2590,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2597,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G46" s="1">
         <v>85</v>
@@ -2621,9 +2625,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2632,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G47" s="1">
         <v>80</v>
@@ -2647,19 +2651,19 @@
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="4"/>
       <c r="M47" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -2668,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I48">
         <v>30</v>
@@ -2692,9 +2696,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2703,16 +2707,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I49">
         <v>5</v>
@@ -2727,9 +2731,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2738,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H50" s="1">
         <v>60</v>
@@ -2752,7 +2756,9 @@
       <c r="I50">
         <v>20</v>
       </c>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="4"/>
       <c r="M50" s="1"/>
@@ -2762,9 +2768,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2773,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H51" s="1">
         <v>100</v>
@@ -2787,7 +2793,9 @@
       <c r="I51">
         <v>10</v>
       </c>
-      <c r="J51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="4"/>
       <c r="M51" s="1"/>
@@ -2797,27 +2805,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
         <v>60</v>
-      </c>
-      <c r="C52" t="s">
-        <v>61</v>
       </c>
       <c r="D52">
         <v>-7</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I52">
         <v>5</v>
@@ -2832,9 +2840,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
@@ -2843,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I53">
         <v>20</v>
@@ -2867,9 +2875,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2878,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G54" s="1">
         <v>110</v>
@@ -2893,19 +2901,19 @@
         <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="4"/>
       <c r="M54" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2914,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G55" s="1">
         <v>80</v>
@@ -2930,36 +2938,36 @@
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I56">
         <v>5</v>
@@ -2974,9 +2982,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2985,13 +2993,13 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H57" s="1">
         <v>85</v>
@@ -2999,7 +3007,9 @@
       <c r="I57">
         <v>15</v>
       </c>
-      <c r="J57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="4"/>
       <c r="M57" s="1"/>
@@ -3009,9 +3019,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3020,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G58" s="1">
         <v>90</v>
@@ -3044,9 +3054,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3055,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G59" s="1">
         <v>60</v>
@@ -3079,9 +3089,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3090,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G60" s="1">
         <v>70</v>
@@ -3114,9 +3124,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3125,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G61" s="1">
         <v>70</v>
@@ -3141,36 +3151,36 @@
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I62">
         <v>20</v>
@@ -3185,9 +3195,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3196,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G63" s="1">
         <v>110</v>
@@ -3220,9 +3230,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3231,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G64" s="1">
         <v>90</v>
@@ -3246,31 +3256,31 @@
         <v>10</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="4"/>
       <c r="M64" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G65" s="1">
         <v>90</v>
@@ -3288,9 +3298,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3299,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" s="1">
         <v>25</v>
@@ -3320,9 +3330,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -3331,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I67">
         <v>15</v>
@@ -3352,9 +3362,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3363,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H68" s="1">
         <v>100</v>
@@ -3384,9 +3394,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3395,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G69" s="1">
         <v>130</v>
@@ -3416,9 +3426,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3427,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G70" s="1">
         <v>90</v>
@@ -3442,19 +3452,19 @@
         <v>15</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="4"/>
       <c r="M70" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3463,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G71" s="1">
         <v>65</v>
@@ -3484,9 +3494,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3495,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G72" s="1">
         <v>90</v>
@@ -3510,20 +3520,20 @@
         <v>15</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3532,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G73" s="1">
         <v>70</v>
@@ -3553,9 +3563,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3564,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G74" s="1">
         <v>75</v>
@@ -3588,9 +3598,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3599,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G75" s="1">
         <v>120</v>
@@ -3623,9 +3633,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3634,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H76" s="1">
         <v>100</v>
@@ -3658,21 +3668,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G77" s="1">
         <v>80</v>
@@ -3693,27 +3703,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I78">
         <v>20</v>
@@ -3728,27 +3738,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I79">
         <v>30</v>
@@ -3763,9 +3773,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -3774,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I80">
         <v>5</v>
@@ -3798,9 +3808,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3809,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G81" s="1">
         <v>100</v>
@@ -3833,9 +3843,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3844,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G82" s="1">
         <v>80</v>
@@ -3861,17 +3871,17 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3880,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G83" s="1">
         <v>80</v>
@@ -3904,9 +3914,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3915,10 +3925,10 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G84" s="1">
         <v>75</v>
@@ -3930,19 +3940,19 @@
         <v>15</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="4"/>
       <c r="M84" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -3951,16 +3961,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I85">
         <v>5</v>
@@ -3975,9 +3985,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -3986,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I86">
         <v>10</v>
@@ -4010,9 +4020,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4021,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G87" s="1">
         <v>90</v>
@@ -4038,17 +4048,17 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4057,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G88" s="1">
         <v>70</v>
@@ -4081,9 +4091,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4092,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G89" s="1">
         <v>90</v>
@@ -4109,35 +4119,35 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I90">
         <v>10</v>
@@ -4152,9 +4162,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4163,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H91" s="1">
         <v>100</v>
@@ -4187,9 +4197,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4198,16 +4208,16 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I92">
         <v>10</v>
@@ -4222,9 +4232,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4233,10 +4243,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G93" s="1">
         <v>120</v>
@@ -4250,17 +4260,17 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4269,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G94" s="1">
         <v>90</v>
@@ -4284,19 +4294,19 @@
         <v>15</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="4"/>
       <c r="M94" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4305,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H95" s="1">
         <v>90</v>
@@ -4329,9 +4339,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4340,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G96" s="1">
         <v>80</v>
@@ -4357,29 +4367,29 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G97" s="1">
         <v>120</v>
@@ -4400,9 +4410,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4411,10 +4421,10 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G98" s="1">
         <v>75</v>
@@ -4435,9 +4445,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4446,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G99" s="1">
         <v>120</v>
@@ -4470,9 +4480,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4481,10 +4491,10 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G100" s="1">
         <v>40</v>
@@ -4505,9 +4515,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4516,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G101" s="1">
         <v>110</v>
@@ -4540,9 +4550,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4551,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G102" s="1">
         <v>90</v>
@@ -4568,17 +4578,17 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4587,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G103" s="1">
         <v>90</v>
@@ -4602,19 +4612,19 @@
         <v>15</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="4"/>
       <c r="M103" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4623,10 +4633,10 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G104" s="1">
         <v>90</v>
@@ -4638,19 +4648,19 @@
         <v>10</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="4"/>
       <c r="M104" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4659,16 +4669,16 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I105">
         <v>20</v>
@@ -4680,9 +4690,9 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4691,16 +4701,16 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G106" s="1">
         <v>60</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I106">
         <v>20</v>
@@ -4712,9 +4722,9 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -4723,16 +4733,16 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I107">
         <v>10</v>
@@ -4744,9 +4754,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4755,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G108" s="1">
         <v>120</v>
@@ -4776,9 +4786,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4787,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G109" s="1">
         <v>70</v>
@@ -4808,27 +4818,27 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I110">
         <v>20</v>
@@ -4840,9 +4850,9 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4851,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G111" s="1">
         <v>65</v>
@@ -4866,7 +4876,7 @@
         <v>15</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="4"/>
@@ -4874,12 +4884,12 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4888,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H112" s="1">
         <v>60</v>
@@ -4912,9 +4922,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4923,10 +4933,10 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G113" s="1">
         <v>100</v>
@@ -4947,9 +4957,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4958,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G114" s="1">
         <v>80</v>
@@ -4973,7 +4983,7 @@
         <v>15</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="4"/>
@@ -4981,13 +4991,13 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>120</v>
-      </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
@@ -4995,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G115" s="1">
         <v>65</v>
@@ -5010,7 +5020,7 @@
         <v>15</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="4"/>
@@ -5018,27 +5028,27 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>122</v>
-      </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H116" s="1">
         <v>100</v>
@@ -5056,9 +5066,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -5067,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G117" s="1">
         <v>130</v>
@@ -5091,9 +5101,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -5102,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G118" s="1">
         <v>75</v>
@@ -5118,18 +5128,18 @@
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L118" s="4"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -5138,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G119" s="1">
         <v>95</v>
@@ -5159,13 +5169,13 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>127</v>
-      </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
@@ -5173,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G120" s="1">
         <v>80</v>
@@ -5189,18 +5199,18 @@
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -5209,16 +5219,16 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I121">
         <v>10</v>
@@ -5233,9 +5243,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -5244,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G122" s="1">
         <v>55</v>
@@ -5268,9 +5278,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -5279,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G123" s="1">
         <v>80</v>
@@ -5303,9 +5313,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -5314,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G124" s="1">
         <v>120</v>
@@ -5338,9 +5348,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -5349,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G125" s="1">
         <v>30</v>
@@ -5373,9 +5383,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -5384,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G126" s="1">
         <v>70</v>
@@ -5400,18 +5410,18 @@
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L126" s="4"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -5420,10 +5430,10 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G127" s="1">
         <v>80</v>
@@ -5444,9 +5454,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -5455,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G128" s="1">
         <v>25</v>
@@ -5479,9 +5489,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -5490,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G129" s="1">
         <v>75</v>
@@ -5514,9 +5524,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -5525,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G130" s="1">
         <v>60</v>
@@ -5546,12 +5556,12 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>136</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -5560,16 +5570,16 @@
         <v>-6</v>
       </c>
       <c r="E131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I131">
         <v>20</v>
@@ -5584,9 +5594,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -5595,13 +5605,13 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H132" s="1">
         <v>85</v>
@@ -5619,21 +5629,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G133" s="1">
         <v>75</v>
@@ -5646,18 +5656,18 @@
       </c>
       <c r="J133" s="1"/>
       <c r="K133" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L133" s="4"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -5666,16 +5676,16 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I134">
         <v>20</v>
@@ -5690,9 +5700,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -5701,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G135" s="1">
         <v>60</v>
@@ -5722,13 +5732,13 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>141</v>
-      </c>
       <c r="C136" t="s">
         <v>5</v>
       </c>
@@ -5736,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H136" s="1">
         <v>55</v>
@@ -5760,9 +5770,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -5771,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H137" s="1">
         <v>100</v>
@@ -5795,9 +5805,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -5806,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G138" s="1">
         <v>70</v>
@@ -5830,21 +5840,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G139" s="1">
         <v>250</v>
@@ -5865,9 +5875,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -5876,10 +5886,10 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G140" s="1">
         <v>80</v>
@@ -5892,18 +5902,18 @@
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L140" s="4"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -5912,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G141" s="1">
         <v>90</v>
@@ -5929,17 +5939,17 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -5948,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G142" s="1">
         <v>80</v>
@@ -5964,18 +5974,18 @@
       </c>
       <c r="J142" s="1"/>
       <c r="K142" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L142" s="4"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
@@ -5984,16 +5994,16 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I143">
         <v>30</v>
@@ -6008,9 +6018,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
@@ -6019,16 +6029,16 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I144">
         <v>10</v>
@@ -6043,9 +6053,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -6054,10 +6064,10 @@
         <v>-6</v>
       </c>
       <c r="E145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G145" s="1">
         <v>60</v>
@@ -6078,9 +6088,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
@@ -6089,16 +6099,16 @@
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I146">
         <v>10</v>
@@ -6113,9 +6123,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -6124,16 +6134,16 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I147">
         <v>10</v>
@@ -6148,9 +6158,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -6159,10 +6169,10 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G148" s="1">
         <v>40</v>
@@ -6183,9 +6193,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -6194,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G149" s="1">
         <v>80</v>
@@ -6215,13 +6225,13 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>152</v>
-      </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
@@ -6229,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G150" s="1">
         <v>120</v>
@@ -6244,7 +6254,7 @@
         <v>5</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="4"/>
@@ -6254,9 +6264,9 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -6265,16 +6275,16 @@
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I151">
         <v>30</v>
@@ -6286,9 +6296,9 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -6297,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G152" s="1">
         <v>70</v>
@@ -6312,31 +6322,31 @@
         <v>10</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" s="4"/>
       <c r="M152" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G153" s="1">
         <v>95</v>
@@ -6348,19 +6358,19 @@
         <v>10</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K153" s="1"/>
       <c r="L153" s="4"/>
       <c r="M153" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -6369,10 +6379,10 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G154" s="1">
         <v>120</v>
@@ -6390,9 +6400,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -6401,10 +6411,10 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G155" s="1">
         <v>70</v>
@@ -6422,9 +6432,9 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -6433,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G156" s="1">
         <v>50</v>
@@ -6454,9 +6464,9 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -6465,16 +6475,16 @@
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G157" s="1">
         <v>80</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I157" s="1">
         <v>20</v>
@@ -6486,21 +6496,21 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G158" s="1">
         <v>80</v>
@@ -6512,19 +6522,19 @@
         <v>15</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="4"/>
       <c r="M158" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
         <v>3</v>
@@ -6533,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G159" s="1">
         <v>150</v>
@@ -6557,9 +6567,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -6568,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G160" s="1">
         <v>95</v>
@@ -6592,9 +6602,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -6603,16 +6613,16 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="I161" s="1">
         <v>20</v>
@@ -6627,9 +6637,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -6638,13 +6648,13 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H162" s="1">
         <v>75</v>
@@ -6652,7 +6662,9 @@
       <c r="I162" s="1">
         <v>15</v>
       </c>
-      <c r="J162" s="1"/>
+      <c r="J162" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="K162" s="1"/>
       <c r="L162" s="4"/>
       <c r="M162" s="1"/>
@@ -6662,9 +6674,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -6673,10 +6685,10 @@
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G163" s="1">
         <v>70</v>
@@ -6694,7 +6706,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
